--- a/biology/Médecine/Médaille_de_l'hygiène/Médaille_de_l'hygiène.xlsx
+++ b/biology/Médecine/Médaille_de_l'hygiène/Médaille_de_l'hygiène.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27hygi%C3%A8ne</t>
+          <t>Médaille_de_l'hygiène</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La médaille de l'hygiène ou Médaille d'honneur de l'Hygiène publique est une décoration civile française instituée en 1912.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27hygi%C3%A8ne</t>
+          <t>Médaille_de_l'hygiène</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle s'adresse aux personnels hospitaliers ou sanatoriums. Elle est complémentaire de la médaille des épidémies.
 La médaille disparaît en 1938, remplacée par l'Ordre de la Santé publique.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9daille_de_l%27hygi%C3%A8ne</t>
+          <t>Médaille_de_l'hygiène</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
